--- a/01_設計書/画面設計書.xlsx
+++ b/01_設計書/画面設計書.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Top画面" sheetId="1" r:id="rId1"/>
-    <sheet name="部屋画面" sheetId="5" r:id="rId2"/>
-    <sheet name="ログイン画面" sheetId="6" r:id="rId3"/>
-    <sheet name="会員登録用メール送信画面" sheetId="7" r:id="rId4"/>
-    <sheet name="会員登録画面" sheetId="9" r:id="rId5"/>
+    <sheet name="Top画面（Top）" sheetId="1" r:id="rId1"/>
+    <sheet name="部屋画面（Room）" sheetId="5" r:id="rId2"/>
+    <sheet name="ログイン画面（Login）" sheetId="6" r:id="rId3"/>
+    <sheet name="会員登録用メール送信画面（MailSend）" sheetId="7" r:id="rId4"/>
+    <sheet name="会員登録画面（SignUp）" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -19,13 +19,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
-  <si>
-    <t>Top画面</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
   <si>
     <t>①</t>
     <phoneticPr fontId="1"/>
@@ -100,39 +93,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>会員登録画面に遷移する</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>部屋画面</t>
-    <rPh sb="0" eb="2">
-      <t>ヘヤ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スカイプ機能（テレビ電話）を利用</t>
     <rPh sb="4" eb="6">
       <t>キノウ</t>
@@ -226,29 +186,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>会員登録用メール送信画面</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>トウロクヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会員登録画面</t>
-    <rPh sb="0" eb="6">
-      <t>カイイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード（確認）を入力する</t>
     <rPh sb="6" eb="8">
       <t>カクニン</t>
@@ -262,6 +199,72 @@
     <t>（Top画面、部屋画面）</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員登録用メール送信画面に遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>トウロクヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Top画面（Top）</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋画面（Room）</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面（Login）</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員登録用メール送信画面（MailSend）</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>トウロクヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員登録画面（SignUp）</t>
+    <rPh sb="0" eb="6">
+      <t>カイイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4113,9 +4116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CG17" sqref="CG15:CG17"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.46484375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4124,56 +4125,56 @@
   <sheetData>
     <row r="1" spans="1:72" ht="24.4" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.45">
       <c r="U3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BT3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.45">
       <c r="BS4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="BT4" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.45">
       <c r="BR7" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BS7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BT7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.45">
       <c r="BR9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS9" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="BS9" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:72" x14ac:dyDescent="0.45">
       <c r="BR11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BS11" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -4188,9 +4189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BP1" sqref="BP1"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.46484375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4199,47 +4198,47 @@
   <sheetData>
     <row r="1" spans="1:72" ht="24.4" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.45">
       <c r="U3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.45">
       <c r="BR5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BS5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BT5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:72" x14ac:dyDescent="0.45">
       <c r="BT6" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:72" x14ac:dyDescent="0.45">
       <c r="BS8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BT8" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.45">
       <c r="BT9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4254,7 +4253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.46484375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4263,39 +4262,39 @@
   <sheetData>
     <row r="1" spans="1:72" ht="24.4" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.45">
       <c r="U3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.45">
       <c r="BR5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BS5" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.45">
       <c r="BR7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS7" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.45">
       <c r="BT9" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4319,26 +4318,26 @@
   <sheetData>
     <row r="1" spans="1:71" ht="24.4" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.45">
       <c r="U3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.45">
       <c r="BR5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BS5" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -4353,9 +4352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BT9" sqref="BT9"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.46484375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4364,39 +4361,39 @@
   <sheetData>
     <row r="1" spans="1:72" ht="24.4" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.45">
       <c r="U3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.45">
       <c r="BR5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BS5" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.45">
       <c r="BR7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS7" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.45">
       <c r="BT9" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
